--- a/data/Subset 1/Boats and Fish 3_Grade 4.xlsx
+++ b/data/Subset 1/Boats and Fish 3_Grade 4.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T/R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
